--- a/biology/Zoologie/Aphaninae/Aphaninae.xlsx
+++ b/biology/Zoologie/Aphaninae/Aphaninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphaninae sont un ancien taxon aujourd'hui inusité, désignant une sous-famille d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Lygaeidae. Cette appellation est désuète.
 </t>
@@ -511,13 +523,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La sous-famille des Aphaninae avait été créée en 1894 par l'entomologiste français Lucien François Lethierry (d) (1830-1894) et l'entomologiste belge Guillaume Severin (d) (1862-1938), initialement comme une sous-famille mais sous un nom normalisé comme celui d'une famille, « Aphaninae »[1]. Son rattachement à la famille des Lygaeidae a été fait par Georg Statz (d) et Eduard Wagner en 1950[2].
-Cette dénomination n'a pas été retenue par la communauté scientifique. Elle peut être considérée comme un synonyme de Rhyparochrominae[3], dans la famille des Rhyparochromidae (Lygaeoidea). Le genre Aphanus, dont « Aphaninae » était tiré, est classé dans la tribu des Gonianotini. Les autres tribus mentionnées, Lethaeini et Rhyparochromini sont classées dans les Rhyparochrominae. Le nom de tribu « Aphanini » est également abandonné[4].
-Le genre fossile †Praenotochilus, initialement placé dans les « Aphaninae » est aujourd'hui considéré par le site The Paleobiology Database comme appartenant aux Rhyparochrominae[5].
-Liste des tribus et genres
-Selon Paleobiology Database                   (29 avril 2021)[6], classification ne correspondant pas à celle d'autres sites (ITIS, BioLib) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Aphaninae avait été créée en 1894 par l'entomologiste français Lucien François Lethierry (d) (1830-1894) et l'entomologiste belge Guillaume Severin (d) (1862-1938), initialement comme une sous-famille mais sous un nom normalisé comme celui d'une famille, « Aphaninae ». Son rattachement à la famille des Lygaeidae a été fait par Georg Statz (d) et Eduard Wagner en 1950.
+Cette dénomination n'a pas été retenue par la communauté scientifique. Elle peut être considérée comme un synonyme de Rhyparochrominae, dans la famille des Rhyparochromidae (Lygaeoidea). Le genre Aphanus, dont « Aphaninae » était tiré, est classé dans la tribu des Gonianotini. Les autres tribus mentionnées, Lethaeini et Rhyparochromini sont classées dans les Rhyparochrominae. Le nom de tribu « Aphanini » est également abandonné.
+Le genre fossile †Praenotochilus, initialement placé dans les « Aphaninae » est aujourd'hui considéré par le site The Paleobiology Database comme appartenant aux Rhyparochrominae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aphaninae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphaninae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (29 avril 2021), classification ne correspondant pas à celle d'autres sites (ITIS, BioLib) :
 tribu des Aphanini
 genre Raglius Stal, 1872 (aujourd'hui dans les Rhyparochromini)
 tribu des Lethaeini
